--- a/medicine/Psychotrope/Café_de_la_Nouvelle_Athènes/Café_de_la_Nouvelle_Athènes.xlsx
+++ b/medicine/Psychotrope/Café_de_la_Nouvelle_Athènes/Café_de_la_Nouvelle_Athènes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_de_la_Nouvelle_Ath%C3%A8nes</t>
+          <t>Café_de_la_Nouvelle_Athènes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Café de la Nouvelle Athènes est un ancien café parisien qui se situait au no 9 de la place Pigalle à Paris (France). 
-Il a été, de 1871 à la fin du XIXe siècle, un lieu de rencontre des artistes peintres du mouvement impressionniste. Il doit son nom à la Nouvelle Athènes, quartier du 9e arrondissement dans lequel il se situe, à l'architecture néo-classique inspirée de l'art grec. Il servit de décor à plusieurs tableaux célèbres, comme La Prune de Manet, et Dans un café, dit aussi L'Absinthe d'Edgar Degas[1].
-On retrouve Suzanne Valadon, représentée dans le tableau Au Café la Nouvelle Athènes, peint en 1885 par Federico Zandomeneghi, peintre divisionniste italien[2].
+Il a été, de 1871 à la fin du XIXe siècle, un lieu de rencontre des artistes peintres du mouvement impressionniste. Il doit son nom à la Nouvelle Athènes, quartier du 9e arrondissement dans lequel il se situe, à l'architecture néo-classique inspirée de l'art grec. Il servit de décor à plusieurs tableaux célèbres, comme La Prune de Manet, et Dans un café, dit aussi L'Absinthe d'Edgar Degas.
+On retrouve Suzanne Valadon, représentée dans le tableau Au Café la Nouvelle Athènes, peint en 1885 par Federico Zandomeneghi, peintre divisionniste italien.
 Le photographe Paul Sescau, ami de Toulouse-Lautrec, vécut au dessus du café à partir de 1896 et y avait son studio.
 C'est là que le jeune Maurice Ravel rencontre Erik Satie qui y est pianiste : Ravel habite de 1886 à 1896, période où il étudie la musique au Conservatoire de Paris, rue Pigalle.
 Le bâtiment originel a été détruit dans un incendie en 2004.
